--- a/app/Data/accumulation/Osaka_Accumulated.xlsx
+++ b/app/Data/accumulation/Osaka_Accumulated.xlsx
@@ -21584,7 +21584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23571,57 +23571,155 @@
       <c r="R40" s="45" t="n"/>
     </row>
     <row r="41" ht="18" customHeight="1" s="115">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="0" t="inlineStr">
         <is>
           <t>2024-12-08</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
+      <c r="B41" s="0" t="inlineStr"/>
+      <c r="C41" s="0" t="inlineStr">
         <is>
           <t>代として(消費税等</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="0" t="inlineStr">
         <is>
           <t>Liam Carter</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
+      <c r="E41" s="0" t="inlineStr"/>
+      <c r="F41" s="0" t="n">
         <v>3793</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
+      <c r="G41" s="0" t="inlineStr"/>
+      <c r="H41" s="0" t="inlineStr">
         <is>
           <t>No3090</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
+      <c r="I41" s="0" t="inlineStr"/>
+      <c r="J41" s="0" t="inlineStr"/>
+      <c r="K41" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" s="0" t="inlineStr"/>
+      <c r="N41" s="0" t="n">
         <v>3793</v>
       </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="n">
+      <c r="O41" s="0" t="inlineStr"/>
+      <c r="P41" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R41" s="0" t="n">
         <v>2024</v>
       </c>
     </row>
-    <row r="42" ht="18" customHeight="1" s="115"/>
-    <row r="43" ht="18" customHeight="1" s="115"/>
+    <row r="42" ht="18" customHeight="1" s="115">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr"/>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>領収書</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>Liam Carter</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr"/>
+      <c r="F42" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G42" s="0" t="inlineStr"/>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>T1010001112577</t>
+        </is>
+      </c>
+      <c r="I42" s="0" t="inlineStr"/>
+      <c r="J42" s="0" t="inlineStr"/>
+      <c r="K42" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="0" t="inlineStr"/>
+      <c r="N42" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="O42" s="0" t="inlineStr"/>
+      <c r="P42" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" ht="18" customHeight="1" s="115">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-12-02</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ローソン</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Liam Carter</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>687</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>T6810161574620</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>59</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
+        <v>687</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>59</v>
+      </c>
+    </row>
     <row r="44" ht="18" customHeight="1" s="115"/>
     <row r="45" ht="18" customHeight="1" s="115"/>
     <row r="46" ht="18" customHeight="1" s="115"/>
